--- a/frontend/public/BATCH_QUESTION.xlsx
+++ b/frontend/public/BATCH_QUESTION.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bokzg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exam-bank\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A18AA88-5D3A-4F9D-9347-D39547CC1061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923C200-EEE3-434A-BF5E-CCC4F19CA61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E93E83C9-6C96-40F1-898F-E80A2AAB2207}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780121C-2525-404C-9D4A-6B3AD9A0A839}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FORMAT" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT SHEET" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="CATEGORY">FORMAT!$E$3:$E$6</definedName>
+    <definedName name="CLASSIFICATIONS">FORMAT!$B$3:$B$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,9 +40,188 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>For CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>For CATEGORY</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Comprehension</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Synthesis</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>Prelims</t>
+  </si>
+  <si>
+    <t>Midterms</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>For TERMS</t>
+  </si>
+  <si>
+    <t>TERMS</t>
+  </si>
+  <si>
+    <t>Is Correct</t>
+  </si>
+  <si>
+    <t>How many ears does cat have?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>LEAVE BLANK</t>
+  </si>
+  <si>
+    <t>1 , 2</t>
+  </si>
+  <si>
+    <t>Rectangle is a square</t>
+  </si>
+  <si>
+    <t>EXAMPLE INPUT</t>
+  </si>
+  <si>
+    <t>Give atleast 5 names from Naruto Anime</t>
+  </si>
+  <si>
+    <t>1 ,2 ,3</t>
+  </si>
+  <si>
+    <t>Sasuke, Naruto, Sakura, Kakashi, Monkey D. Luffy</t>
+  </si>
+  <si>
+    <t>NOTE: DO NOT DELETE OR CHANGE FROM THIS WORKBOOK</t>
+  </si>
+  <si>
+    <t>Who is the main protagonist of the anime Bleach?</t>
+  </si>
+  <si>
+    <t>Sakuragi</t>
+  </si>
+  <si>
+    <t>Ichigo</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Balmond</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>NOTE: USE WORKBOOK 2 FOR DATA INPUT</t>
+  </si>
+  <si>
+    <t>DATA INPUT</t>
+  </si>
+  <si>
+    <t>NOTE: DO NOT DELETE THIS 2 ROW (START FROM ROW 3)</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>SAMPLE CATROGRY</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,18 +229,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -66,8 +338,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,15 +719,1861 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E8B3BC-B346-4A05-8DF8-244384D547CB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446FE800-9452-4C2B-A21B-4868AD0CF6D1}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D10:L11"/>
+    <mergeCell ref="D21:L22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="A13:L13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57513EB9-568B-43B7-9147-7A449078291A}">
+  <dimension ref="A1:S320"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="N1:S2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A320" xr:uid="{FD0B3AD1-7771-4436-A88F-B78F4CDFC966}">
+      <formula1>CLASSIFICATIONS</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B319" xr:uid="{4E1E0E10-4722-49B4-A83F-BEC8DD56B250}">
+      <formula1>CATEGORY</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontend/public/BATCH_QUESTION.xlsx
+++ b/frontend/public/BATCH_QUESTION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exam-bank\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bokzg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923C200-EEE3-434A-BF5E-CCC4F19CA61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48C22F-C4DA-47DB-AC0C-104D31A61032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780121C-2525-404C-9D4A-6B3AD9A0A839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E780121C-2525-404C-9D4A-6B3AD9A0A839}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMAT" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Classification</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>SA</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Terms</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -363,9 +369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446FE800-9452-4C2B-A21B-4868AD0CF6D1}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -744,36 +747,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -890,44 +893,44 @@
         <v>17</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -983,14 +986,14 @@
       <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="8" t="s">
         <v>38</v>
       </c>
@@ -1015,12 +1018,12 @@
         <v>0</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="8">
         <v>3</v>
       </c>
@@ -1041,14 +1044,14 @@
       <c r="E17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="8" t="s">
         <v>42</v>
       </c>
@@ -1100,28 +1103,28 @@
       <c r="L19" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1144,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57513EB9-568B-43B7-9147-7A449078291A}">
   <dimension ref="A1:S320"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,33 +1162,34 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1222,15 +1226,17 @@
         <v>34</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
